--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdnf-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdnf-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Gdnf</t>
+  </si>
+  <si>
+    <t>Ret</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Gdnf</t>
-  </si>
-  <si>
-    <t>Ret</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2159706666666667</v>
+        <v>0.2660856666666667</v>
       </c>
       <c r="H2">
-        <v>0.647912</v>
+        <v>0.798257</v>
       </c>
       <c r="I2">
-        <v>0.05773722394873236</v>
+        <v>0.0824022153898117</v>
       </c>
       <c r="J2">
-        <v>0.08136311778596961</v>
+        <v>0.1187122470109165</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.986848333333333</v>
+        <v>1.219350333333333</v>
       </c>
       <c r="N2">
-        <v>5.960545</v>
+        <v>3.658051</v>
       </c>
       <c r="O2">
-        <v>0.3070436244112906</v>
+        <v>0.2422674834150417</v>
       </c>
       <c r="P2">
-        <v>0.3340680476987617</v>
+        <v>0.2576244469655636</v>
       </c>
       <c r="Q2">
-        <v>0.4291009591155556</v>
+        <v>0.3244516463452222</v>
       </c>
       <c r="R2">
-        <v>3.86190863204</v>
+        <v>2.920064817107</v>
       </c>
       <c r="S2">
-        <v>0.01772784650466515</v>
+        <v>0.0199633773503139</v>
       </c>
       <c r="T2">
-        <v>0.02718081791344326</v>
+        <v>0.03058317698422676</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2159706666666667</v>
+        <v>0.2660856666666667</v>
       </c>
       <c r="H3">
-        <v>0.647912</v>
+        <v>0.798257</v>
       </c>
       <c r="I3">
-        <v>0.05773722394873236</v>
+        <v>0.0824022153898117</v>
       </c>
       <c r="J3">
-        <v>0.08136311778596961</v>
+        <v>0.1187122470109165</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>8.740984000000001</v>
       </c>
       <c r="O3">
-        <v>0.4502714782425266</v>
+        <v>0.5789028628226193</v>
       </c>
       <c r="P3">
-        <v>0.4899020911420204</v>
+        <v>0.6155986258624717</v>
       </c>
       <c r="Q3">
-        <v>0.629265380600889</v>
+        <v>0.7752835183208889</v>
       </c>
       <c r="R3">
-        <v>5.663388425408001</v>
+        <v>6.977551664888001</v>
       </c>
       <c r="S3">
-        <v>0.02599742517701552</v>
+        <v>0.04770287839208809</v>
       </c>
       <c r="T3">
-        <v>0.03985996154518102</v>
+        <v>0.07307909613296652</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2159706666666667</v>
+        <v>0.2660856666666667</v>
       </c>
       <c r="H4">
-        <v>0.647912</v>
+        <v>0.798257</v>
       </c>
       <c r="I4">
-        <v>0.05773722394873236</v>
+        <v>0.0824022153898117</v>
       </c>
       <c r="J4">
-        <v>0.08136311778596961</v>
+        <v>0.1187122470109165</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.5703895</v>
+        <v>0.9000629999999999</v>
       </c>
       <c r="N4">
-        <v>3.140779</v>
+        <v>1.800126</v>
       </c>
       <c r="O4">
-        <v>0.2426848973461828</v>
+        <v>0.178829653762339</v>
       </c>
       <c r="P4">
-        <v>0.1760298611592177</v>
+        <v>0.1267769271719646</v>
       </c>
       <c r="Q4">
-        <v>0.3391580672413333</v>
+        <v>0.239493863397</v>
       </c>
       <c r="R4">
-        <v>2.034948403448</v>
+        <v>1.436963180382</v>
       </c>
       <c r="S4">
-        <v>0.01401195226705168</v>
+        <v>0.01473595964740971</v>
       </c>
       <c r="T4">
-        <v>0.01432233832734531</v>
+        <v>0.01504997389372323</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2660856666666667</v>
+        <v>2.9630225</v>
       </c>
       <c r="H5">
-        <v>0.798257</v>
+        <v>5.926045</v>
       </c>
       <c r="I5">
-        <v>0.071134881245668</v>
+        <v>0.9175977846101883</v>
       </c>
       <c r="J5">
-        <v>0.1002430550977212</v>
+        <v>0.8812877529890836</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.986848333333333</v>
+        <v>1.219350333333333</v>
       </c>
       <c r="N5">
-        <v>5.960545</v>
+        <v>3.658051</v>
       </c>
       <c r="O5">
-        <v>0.3070436244112906</v>
+        <v>0.2422674834150417</v>
       </c>
       <c r="P5">
-        <v>0.3340680476987617</v>
+        <v>0.2576244469655636</v>
       </c>
       <c r="Q5">
-        <v>0.5286718633405556</v>
+        <v>3.612962473049167</v>
       </c>
       <c r="R5">
-        <v>4.758046770065</v>
+        <v>21.677774838295</v>
       </c>
       <c r="S5">
-        <v>0.02184151175973664</v>
+        <v>0.2223041060647278</v>
       </c>
       <c r="T5">
-        <v>0.03348800171185513</v>
+        <v>0.2270412699813369</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2660856666666667</v>
+        <v>2.9630225</v>
       </c>
       <c r="H6">
-        <v>0.798257</v>
+        <v>5.926045</v>
       </c>
       <c r="I6">
-        <v>0.071134881245668</v>
+        <v>0.9175977846101883</v>
       </c>
       <c r="J6">
-        <v>0.1002430550977212</v>
+        <v>0.8812877529890836</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>8.740984000000001</v>
       </c>
       <c r="O6">
-        <v>0.4502714782425266</v>
+        <v>0.5789028628226193</v>
       </c>
       <c r="P6">
-        <v>0.4899020911420204</v>
+        <v>0.6155986258624717</v>
       </c>
       <c r="Q6">
-        <v>0.7752835183208889</v>
+        <v>8.633244088046668</v>
       </c>
       <c r="R6">
-        <v>6.977551664888001</v>
+        <v>51.79946452828001</v>
       </c>
       <c r="S6">
-        <v>0.03203000813309351</v>
+        <v>0.5311999844305312</v>
       </c>
       <c r="T6">
-        <v>0.04910928231483838</v>
+        <v>0.5425195297295052</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2660856666666667</v>
+        <v>2.9630225</v>
       </c>
       <c r="H7">
-        <v>0.798257</v>
+        <v>5.926045</v>
       </c>
       <c r="I7">
-        <v>0.071134881245668</v>
+        <v>0.9175977846101883</v>
       </c>
       <c r="J7">
-        <v>0.1002430550977212</v>
+        <v>0.8812877529890836</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.5703895</v>
+        <v>0.9000629999999999</v>
       </c>
       <c r="N7">
-        <v>3.140779</v>
+        <v>1.800126</v>
       </c>
       <c r="O7">
-        <v>0.2426848973461828</v>
+        <v>0.178829653762339</v>
       </c>
       <c r="P7">
-        <v>0.1760298611592177</v>
+        <v>0.1267769271719646</v>
       </c>
       <c r="Q7">
-        <v>0.4178581370338333</v>
+        <v>2.6669069204175</v>
       </c>
       <c r="R7">
-        <v>2.507148822203</v>
+        <v>10.66762768167</v>
       </c>
       <c r="S7">
-        <v>0.01726336135283784</v>
+        <v>0.1640936941149293</v>
       </c>
       <c r="T7">
-        <v>0.01764577107102768</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3.258523</v>
-      </c>
-      <c r="H8">
-        <v>6.517046000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.8711278948055996</v>
-      </c>
-      <c r="J8">
-        <v>0.8183938271163091</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.986848333333333</v>
-      </c>
-      <c r="N8">
-        <v>5.960545</v>
-      </c>
-      <c r="O8">
-        <v>0.3070436244112906</v>
-      </c>
-      <c r="P8">
-        <v>0.3340680476987617</v>
-      </c>
-      <c r="Q8">
-        <v>6.474190991678334</v>
-      </c>
-      <c r="R8">
-        <v>38.84514595007</v>
-      </c>
-      <c r="S8">
-        <v>0.2674742661468887</v>
-      </c>
-      <c r="T8">
-        <v>0.2733992280734633</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.258523</v>
-      </c>
-      <c r="H9">
-        <v>6.517046000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.8711278948055996</v>
-      </c>
-      <c r="J9">
-        <v>0.8183938271163091</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.913661333333334</v>
-      </c>
-      <c r="N9">
-        <v>8.740984000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.4502714782425266</v>
-      </c>
-      <c r="P9">
-        <v>0.4899020911420204</v>
-      </c>
-      <c r="Q9">
-        <v>9.494232468877335</v>
-      </c>
-      <c r="R9">
-        <v>56.96539481326401</v>
-      </c>
-      <c r="S9">
-        <v>0.3922440449324175</v>
-      </c>
-      <c r="T9">
-        <v>0.400932847282001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3.258523</v>
-      </c>
-      <c r="H10">
-        <v>6.517046000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.8711278948055996</v>
-      </c>
-      <c r="J10">
-        <v>0.8183938271163091</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.5703895</v>
-      </c>
-      <c r="N10">
-        <v>3.140779</v>
-      </c>
-      <c r="O10">
-        <v>0.2426848973461828</v>
-      </c>
-      <c r="P10">
-        <v>0.1760298611592177</v>
-      </c>
-      <c r="Q10">
-        <v>5.117150304708501</v>
-      </c>
-      <c r="R10">
-        <v>20.468601218834</v>
-      </c>
-      <c r="S10">
-        <v>0.2114095837262933</v>
-      </c>
-      <c r="T10">
-        <v>0.1440617517608447</v>
+        <v>0.1117269532782414</v>
       </c>
     </row>
   </sheetData>
